--- a/biology/Botanique/Jardín_Botánico_Canario_Viera_y_Clavijo/Jardín_Botánico_Canario_Viera_y_Clavijo.xlsx
+++ b/biology/Botanique/Jardín_Botánico_Canario_Viera_y_Clavijo/Jardín_Botánico_Canario_Viera_y_Clavijo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jard%C3%ADn_Bot%C3%A1nico_Canario_Viera_y_Clavijo</t>
+          <t>Jardín_Botánico_Canario_Viera_y_Clavijo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardín Botánico Canario Viera y Clavijo, également connu sous le nom de Jardín Canario, est un jardin botanique situé sur l’île espagnole de Grande Canarie. Il a été nommé en l'honneur de José de Viera y Clavijo (es), naturaliste canarien du XVIIIe siècle, ami de l'éminent botaniste Antonio José Cavanilles et pionnier des sciences de la nature dans l'archipel. Il est principalement consacré aux fleurs et aux plantes endémiques des sept îles des Canaries, et comprend également des espèces des îles appartenant à la zone connue sous le nom d'« îles macaronésiennes », qui comprend les îles de Madère, des Açores et du Cap-Vert. Il est géré par le département de l'environnement et des urgences du Cabildo de Grande Canarie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jard%C3%ADn_Bot%C3%A1nico_Canario_Viera_y_Clavijo</t>
+          <t>Jardín_Botánico_Canario_Viera_y_Clavijo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plus grand jardin botanique d'Espagne, d'une superficie de 27 hectares, il est situé sur l'île de Grande Canarie, dans la municipalité de Las Palmas de Grande Canarie, et est très proche de la municipalité de Santa Brígida.
 La majeure partie du jardin botanique est située sur des terrasses du côté du « Barranco de Guiniguada ». Il est traversé par deux ponts historiques, en mémoire de ceux qui existaient dans la ville de Las Palmas de Gran Canaria, le Puente de Piedra et le Puente de Palo (aujourd'hui disparu) avec lesquels on accède aux zones plates. Des chemins carrelés mènent aux grottes et aux cascades que l'on y trouve et qui sont faciles à parcourir pour ceux qui n'ont pas de problèmes de mobilité.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jard%C3%ADn_Bot%C3%A1nico_Canario_Viera_y_Clavijo</t>
+          <t>Jardín_Botánico_Canario_Viera_y_Clavijo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin botanique Viera y Clavijo a été fondé en 1952 par Don Matías Vega Guerra (es), président du Cabildo, qui a réalisé le rêve du botaniste suédois Eric Sventenius, lequel est resté le directeur du jardin jusqu'à sa mort dans un accident de la route en 1973. Le but de sa fondation était de préserver et de protéger la flore endémique des îles Canaries.
 En août 1974, le David Bramwell est nommé deuxième directeur du Jardin. Cette nomination marque le début d'une nouvelle phase au cours de laquelle le jardin botanique  est consolidé en tant que centre de conservation, de recherche et d'éducation environnementale. De nouveaux laboratoires, un herbier et une bibliothèque sont construits. Une pépinière est également créée, pour conserver les collections de plantes vivantes.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jard%C3%ADn_Bot%C3%A1nico_Canario_Viera_y_Clavijo</t>
+          <t>Jardín_Botánico_Canario_Viera_y_Clavijo</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Situées sur des terrasses et prospérant dans leur habitat naturel, chaque espèce a sa propre zone délimitée. Une fois l'entrée principale franchie, on trouve quelques spécimens de la forêt de lauriers (es) (arbres à baies de laurier ou « perroquets »), qui constituait le couvert forestier originel des îles à l'époque préhispanique, mais qui a été complètement détruite lors de la colonisation.
 En entrant par le « Camino de los Dragos », on arrive à la « Plaza de las Palmeras », où l'on trouve toutes les espèces de palmiers qui poussent sur les îles de l'archipel. Parmi les autres espèces, on trouve également des spécimens de Pins des Canaries, de Dragonniers des Canaries, de bruyères, et plus de 10 000 espèces de plantes grasses du monde entier. La flore des îles comprend la plupart des espèces menacées parmi les quelque 600 espèces endémiques de l'archipel.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jard%C3%ADn_Bot%C3%A1nico_Canario_Viera_y_Clavijo</t>
+          <t>Jardín_Botánico_Canario_Viera_y_Clavijo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Équipements</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces dernières années, un grand nombre de nouvelles espèces végétales ont été découvertes et classées, notamment de la flore des îles, ce qui a grandement contribué à la connaissance du patrimoine.
 Le Jardin botanique Viera y Clavijo mène à bien différentes lignes de recherche visant à la connaissance scientifique de la flore exclusive de l'archipel (palynologie, cytogénétique, chorologie, cultures in vitro, banque de germoplasmes, biologie de la reproduction, biologie moléculaire, etc.)
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jard%C3%ADn_Bot%C3%A1nico_Canario_Viera_y_Clavijo</t>
+          <t>Jardín_Botánico_Canario_Viera_y_Clavijo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Vues du jardin</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue d'ensemble.
